--- a/data/FLs_size_mm_sex_after_male.xlsx
+++ b/data/FLs_size_mm_sex_after_male.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelperini/Documents/research/projects/Lsax_fertilisation_time/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27B4B0-4B30-FA4D-83CE-464F28D9F1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C19A21-1411-304D-95B0-A4DC9EE0945B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{7329625B-1030-B44C-9B38-54782DFA77E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="6">
   <si>
     <t>snail_ID</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA0F101-86AC-3B48-93CD-C3EE40BE6977}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,6 +1373,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>636</v>
+      </c>
+      <c r="B89">
+        <v>9.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
